--- a/medicine/Sexualité et sexologie/Morgan_Carpenter/Morgan_Carpenter.xlsx
+++ b/medicine/Sexualité et sexologie/Morgan_Carpenter/Morgan_Carpenter.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F5"/>
+  <dimension ref="A1:H4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,9 +490,11 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Morgan Carpenter est bioéthicien, militant intersexe et chercheur[1]. Il est devenu président d' Intersex Human Rights Australia (anciennement OII Australia)[2] en septembre 2013, et en est maintenant co-directeur exécutif[3]. En 2013, il a créé le drapeau intersexe [4] et en 2015, il a cofondé un projet pour marquer la Journée de sensibilisation intersexe[5].
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Morgan Carpenter est bioéthicien, militant intersexe et chercheur. Il est devenu président d' Intersex Human Rights Australia (anciennement OII Australia) en septembre 2013, et en est maintenant co-directeur exécutif. En 2013, il a créé le drapeau intersexe  et en 2015, il a cofondé un projet pour marquer la Journée de sensibilisation intersexe.
 </t>
         </is>
       </c>
@@ -511,11 +523,13 @@
           <t>Biographie</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Carpenter est diplômé en bioéthique de l'Université de Sydney et détient également des diplômes de l'Université de Technologie, de Sydney, de Dublin City University et de Coventry University[1]. Son statut intersexe a été diagnostiqué à l'âge adulte, décrit comme incluant un diagnostic de « sexe indéterminé »[6] et des antécédents chirurgicaux[7].
-Morgan Carpenter a aidé à fonder l'organisation Intersex Human Rights Australia et en est devenu président en septembre 2013 [3],[8],[9]. Carpenter a écrit les soumissions de l'organisation aux enquêtes du Sénat, comparaissant pour la législation anti-discrimination. Cette démarche a conduit à l'adoption d'un attribut de « statut intersexué » dans la loi anti-discrimination le 1er août 2013[10],[11],[12] ainsi qu'à une enquête d'un comité sénatorial sur la stérilisation involontaire ou forcée des personnes handicapées et intersexuées[13],[14],[15]. Carpenter est également l'auteur de critiques à propos de la sélection eugéniste par rapport aux traits intersexes et des priorités en matière de recherche clinique[16],[17]. Carpenter est nommé examinateur d'un site web de DSD Genetics financé par le National Health and Medical Research Council, Australie[18] et contribue aux travaux sur la réforme des classifications médicales internationales[19] et des pratiques médicales en Australie[20].
-Les textes de Carpenter ont été publiés par The Guardian[21], SBS[22], Australian Broadcasting Corporation[23] et d'autres médias[24]. Il y dénonce généralement la stigmatisation [25] et s'est exprimé dans les médias nationaux sur des questions touchant les femmes ayant prétendument des traits intersexués dans le sport de compétition[26],[27],[28].
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Carpenter est diplômé en bioéthique de l'Université de Sydney et détient également des diplômes de l'Université de Technologie, de Sydney, de Dublin City University et de Coventry University. Son statut intersexe a été diagnostiqué à l'âge adulte, décrit comme incluant un diagnostic de « sexe indéterminé » et des antécédents chirurgicaux.
+Morgan Carpenter a aidé à fonder l'organisation Intersex Human Rights Australia et en est devenu président en septembre 2013 . Carpenter a écrit les soumissions de l'organisation aux enquêtes du Sénat, comparaissant pour la législation anti-discrimination. Cette démarche a conduit à l'adoption d'un attribut de « statut intersexué » dans la loi anti-discrimination le 1er août 2013 ainsi qu'à une enquête d'un comité sénatorial sur la stérilisation involontaire ou forcée des personnes handicapées et intersexuées. Carpenter est également l'auteur de critiques à propos de la sélection eugéniste par rapport aux traits intersexes et des priorités en matière de recherche clinique,. Carpenter est nommé examinateur d'un site web de DSD Genetics financé par le National Health and Medical Research Council, Australie et contribue aux travaux sur la réforme des classifications médicales internationales et des pratiques médicales en Australie.
+Les textes de Carpenter ont été publiés par The Guardian, SBS, Australian Broadcasting Corporation et d'autres médias. Il y dénonce généralement la stigmatisation  et s'est exprimé dans les médias nationaux sur des questions touchant les femmes ayant prétendument des traits intersexués dans le sport de compétition.
 </t>
         </is>
       </c>
@@ -544,42 +558,14 @@
           <t>Drapeau intersexe</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Le drapeau Intersex a été créé en juillet 2013 par Morgan Carpenter comme un drapeau « qui n'est pas dérivé, mais qui est pourtant fermement ancré dans le sens ». Le cercle est décrit comme « ininterrompu et sans ornements, symbolisant la totalité et l'exhaustivité, ainsi que nos potentialités. Nous luttons toujours pour l'autonomie corporelle et l'intégrité génitale, et cela symbolise le droit d'être qui et comment nous voulons être »[4].
-En parallèle de la reconnaissance des identités de genre non binaires dans les réglementations australiennes, Carpenter a exprimé sa préoccupation à propos du fait que de telles évolutions ne soient « pas une solution » aux besoins des personnes intersexes[29],[30],[31],[32].
-Carpenter soutient que les allégations selon lesquelles la médicalisation sauverait les personnes intersexes d'être considérées comme différentes, comme « l'autre », tandis que l'altérité légale sauverait les personnes intersexes de la médicalisation, sont « une rhétorique contradictoire et vide de sens »[33].
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Le drapeau Intersex a été créé en juillet 2013 par Morgan Carpenter comme un drapeau « qui n'est pas dérivé, mais qui est pourtant fermement ancré dans le sens ». Le cercle est décrit comme « ininterrompu et sans ornements, symbolisant la totalité et l'exhaustivité, ainsi que nos potentialités. Nous luttons toujours pour l'autonomie corporelle et l'intégrité génitale, et cela symbolise le droit d'être qui et comment nous voulons être ».
+En parallèle de la reconnaissance des identités de genre non binaires dans les réglementations australiennes, Carpenter a exprimé sa préoccupation à propos du fait que de telles évolutions ne soient « pas une solution » aux besoins des personnes intersexes.
+Carpenter soutient que les allégations selon lesquelles la médicalisation sauverait les personnes intersexes d'être considérées comme différentes, comme « l'autre », tandis que l'altérité légale sauverait les personnes intersexes de la médicalisation, sont « une rhétorique contradictoire et vide de sens ».
 </t>
-        </is>
-      </c>
-    </row>
-    <row r="5">
-      <c r="A5" s="1" t="n">
-        <v>3</v>
-      </c>
-      <c r="B5" t="inlineStr">
-        <is>
-          <t>Morgan_Carpenter</t>
-        </is>
-      </c>
-      <c r="C5" t="inlineStr">
-        <is>
-          <t>Portail:Sexualité et sexologie/Articles liés</t>
-        </is>
-      </c>
-      <c r="D5" t="inlineStr">
-        <is>
-          <t>https://fr.wikipedia.org/wiki/Morgan_Carpenter</t>
-        </is>
-      </c>
-      <c r="E5" t="inlineStr">
-        <is>
-          <t>Publications</t>
-        </is>
-      </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t>Ouvrages</t>
         </is>
       </c>
     </row>
